--- a/ebs_with_tracing/forms/app/covid_rdt.xlsx
+++ b/ebs_with_tracing/forms/app/covid_rdt.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84041794-D8B5-804E-91DF-30C947933F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="200">
   <si>
     <t>type</t>
   </si>
@@ -58,9 +57,6 @@
     <t>required_message::en</t>
   </si>
   <si>
-    <t>required_message::fr</t>
-  </si>
-  <si>
     <t>appearance</t>
   </si>
   <si>
@@ -169,9 +165,6 @@
     <t>external_id</t>
   </si>
   <si>
-    <t>Muso ID</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -185,9 +178,6 @@
   </si>
   <si>
     <t>This field is required</t>
-  </si>
-  <si>
-    <t>Ce champ est obligatoire</t>
   </si>
   <si>
     <t>../inputs/contact/_id</t>
@@ -623,74 +613,9 @@
     <t>data</t>
   </si>
   <si>
-    <t>Évaluation des patients pour les contacts symptomatiques</t>
-  </si>
-  <si>
-    <t>Votre patient présente-t-il l'un des symptômes suivants ?</t>
-  </si>
-  <si>
-    <t>Précautions</t>
-  </si>
-  <si>
-    <t>Veuillez confirmer que vous avez pris les précautions suivantes :</t>
-  </si>
-  <si>
-    <t>Préparation</t>
-  </si>
-  <si>
-    <t>Réalisation du test</t>
-  </si>
-  <si>
-    <t>Exécution du test</t>
-  </si>
-  <si>
-    <t>Mettre le sang dans le puits d'échantillonnage de la cassette</t>
-  </si>
-  <si>
-    <t>Une fois le sang complètement pénétré dans le puits d'échantillonnage, ajoutez 2 à 3 gouttes (70 à 100μl) de solution tampon. Veillez à effectuer le test sur une surface plane à température ambiante.</t>
-  </si>
-  <si>
-    <t>Régler la minuterie pour 15 minutes</t>
-  </si>
-  <si>
-    <t>Démarrer une minuterie de 15 minutes</t>
-  </si>
-  <si>
-    <t>En attendant:</t>
-  </si>
-  <si>
-    <t>Interpréter le resultat du test COVID-19</t>
-  </si>
-  <si>
-    <t>Quelles lignes apparaissent sur votre test ?</t>
-  </si>
-  <si>
-    <t>Nettoyage des tests</t>
-  </si>
-  <si>
-    <t>Maintenant que vous avez terminé le test COVID-19, veuillez nettoyer votre zone de travail</t>
-  </si>
-  <si>
-    <t>Résumé des résultats de l'évaluation</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; Aucune conclusion ne peut être tirée au sujet de votre patient&lt;/b&gt;. Le test TDR que vous avez utilisé pour cette évaluation n'était pas valide. Veuillez soumettre ce formulaire, mais recommencez une nouvelle évaluation COVID-19 avec un nouveau test TDR.</t>
-  </si>
-  <si>
     <t>Veuillez confirmer chacune des précautions de sécurité avant de poursuivre</t>
   </si>
   <si>
-    <t>Cette évaluation concerne les patients présentant des symptômes de COVID-19. Votre patient ne présentait pas de symptômes de COVID-19 et ne doit pas être testé.
-&lt;ul&gt;&lt;li&gt;Veuillez conseiller à votre patient de rester chez lui et de limiter ses contacts avec les autres.&lt;/li&gt;&lt;li&gt;Votre patient doit appeler ou envoyer un SMS si des symptômes apparaissent&lt;/li&gt;&lt;li&gt;Faire un suivi de votre patient dans une semaine&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt; Le résultat du test de votre patient est négatif. &lt;/b&gt; Mais cela ne signifie pas qu'il n'a pas la COVID-19. Comme il présentait des symptômes, vous devez lui donner les conseils suivants :
-&lt;ul&gt;&lt;li&gt;Conseillez à votre patient de rester à la maison et d'éviter de voir d'autres personnes si possible.&lt;/li&gt;&lt;li&gt;Votre patient doit appeler ou envoyer un SMS si les symptômes s'aggravent ou si de nouveaux symptômes apparaissent.&lt;/li&gt;&lt;li&gt;Faire un suivi de votre patient dans les 24 heures.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>label::fr</t>
-  </si>
-  <si>
     <t>constraint_message::fr</t>
   </si>
   <si>
@@ -724,73 +649,9 @@
     <t>Veuillez confirmer que vous avez terminé chaque étape du nettoyage avant de poursuivre</t>
   </si>
   <si>
-    <t>Portez un équipement de protection. Cela devrait comprendre une blouse, des gants et un masque chirurgical.</t>
-  </si>
-  <si>
-    <t>Désinfectez votre zone de travail avant de commencer</t>
-  </si>
-  <si>
-    <t>Sélectionnez un kit de test et vérifiez la date d'expiration. Les tests ne doivent pas être utilisés après leur date d'expiration.</t>
-  </si>
-  <si>
-    <t>Ouvrez la pochette d’essai et préparez-vous à faire le test. Après l’ouverture, les tests doivent être utilisés dans l’heure qui suit.</t>
-  </si>
-  <si>
-    <t>Nettoyez les surfaces de travail et les matières plastiques (tuyauteries, stylos et minuterie) avec de l’alcool à la fin du travail.</t>
-  </si>
-  <si>
-    <t>Lavez les mains avec de l'alcool à 70% (gardez vos gants)</t>
-  </si>
-  <si>
-    <t>Fiévre</t>
-  </si>
-  <si>
-    <t>Toux</t>
-  </si>
-  <si>
-    <t>Désinfectez le doigt du patient, utilisez son majeur ou son annulaire</t>
-  </si>
-  <si>
-    <t>Difficultés à respirer</t>
-  </si>
-  <si>
-    <t>Jetez les cassettes et les pipettes qui sont du matériel biologique à risque</t>
-  </si>
-  <si>
-    <t>Cette évaluation a conclu que &lt;b&gt;votre patient est positif au COVID-19&lt;/b&gt;, veuillez prendre ces &lt;b&gt;actions immédiates&lt;/b&gt; :
-&lt;ul&gt;&lt;li&gt;Accompagnez le patient à l'établissement de santé pour les tests et les soins cliniques.&lt;/li&gt;&lt;li&gt; Gardez une distance physique de sécurité avec le patient et portez un masque et des gants pour vous protéger.&lt;/li&gt;&lt;li&gt;Aidez le patient à garder une distance physique de sécurité (supérieure à 2 mètres) avec les autres lors de ses déplacements.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Si possible, placez une serviette imbibée d'alcool sur votre zone de travail pour éliminer les éclaboussures</t>
-  </si>
-  <si>
-    <t>Piquez le doigt du patient</t>
-  </si>
-  <si>
-    <t>Prélevez du sang dans un tube capillaire ou un échantillonneur (~20-50uL)</t>
-  </si>
-  <si>
-    <t>Vérifiez et préparez le kit de test</t>
-  </si>
-  <si>
-    <t>Appliquez une légère pression, essuyez les 2-3 premières gouttes de sang avec un tampon d’alcool, et assurez-vous qu’il y a libre circulation sanguine</t>
-  </si>
-  <si>
-    <t>Discutez avec votre patient et sa famille au sujet du lavage régulier des mains, du suivi des symptômes et de la distanciation sociale.</t>
-  </si>
-  <si>
-    <t>Jetez l’échantillonneur capillaire dans la poubelle</t>
-  </si>
-  <si>
-    <t>Piquez le doigt du patient pour commencer l'écoulement sanguin</t>
-  </si>
-  <si>
     <t>The next followup is due on : ${next_visit}</t>
   </si>
   <si>
-    <t>Le prochain suivi par l’ASC est le: ${next_visit}</t>
-  </si>
-  <si>
     <t>next_followup</t>
   </si>
   <si>
@@ -798,12 +659,15 @@
   </si>
   <si>
     <t>next_visit</t>
+  </si>
+  <si>
+    <t>LGH ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1079,14 +943,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1432,37 +1296,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="41.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="39" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="68.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="24.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="1" customWidth="1"/>
-    <col min="20" max="30" width="10.5" style="1" customWidth="1"/>
-    <col min="31" max="1018" width="10.5" customWidth="1"/>
-    <col min="1019" max="1028" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="39" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="68.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="24.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="1" customWidth="1"/>
+    <col min="18" max="28" width="10.5" style="1" customWidth="1"/>
+    <col min="29" max="1016" width="10.5" customWidth="1"/>
+    <col min="1017" max="1026" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1025" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1473,59 +1336,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="AMC1"/>
+      <c r="AMD1"/>
       <c r="AME1"/>
       <c r="AMF1"/>
       <c r="AMG1"/>
@@ -1533,41 +1392,37 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
       <c r="AMK1"/>
-      <c r="AML1"/>
-      <c r="AMM1"/>
     </row>
-    <row r="2" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="U2" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="S2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMC2"/>
+      <c r="AMD2"/>
       <c r="AME2"/>
       <c r="AMF2"/>
       <c r="AMG2"/>
@@ -1575,30 +1430,27 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
       <c r="AMK2"/>
-      <c r="AML2"/>
-      <c r="AMM2"/>
     </row>
-    <row r="3" spans="1:1027" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1025" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="AMC3"/>
+      <c r="AMD3"/>
       <c r="AME3"/>
       <c r="AMF3"/>
       <c r="AMG3"/>
@@ -1606,37 +1458,33 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
       <c r="AMK3"/>
-      <c r="AML3"/>
-      <c r="AMM3"/>
     </row>
-    <row r="4" spans="1:1027" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="AMC4"/>
+      <c r="AMD4"/>
       <c r="AME4"/>
       <c r="AMF4"/>
       <c r="AMG4"/>
@@ -1644,34 +1492,30 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
       <c r="AMK4"/>
-      <c r="AML4"/>
-      <c r="AMM4"/>
     </row>
-    <row r="5" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="AMC5"/>
+      <c r="AMD5"/>
       <c r="AME5"/>
       <c r="AMF5"/>
       <c r="AMG5"/>
@@ -1679,31 +1523,29 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
       <c r="AMK5"/>
-      <c r="AML5"/>
-      <c r="AMM5"/>
     </row>
-    <row r="6" spans="1:1027" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1025" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="AMC6"/>
+      <c r="AMD6"/>
       <c r="AME6"/>
       <c r="AMF6"/>
       <c r="AMG6"/>
@@ -1711,34 +1553,30 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
       <c r="AMK6"/>
-      <c r="AML6"/>
-      <c r="AMM6"/>
     </row>
-    <row r="7" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="AMC7"/>
+      <c r="AMD7"/>
       <c r="AME7"/>
       <c r="AMF7"/>
       <c r="AMG7"/>
@@ -1746,28 +1584,24 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
       <c r="AMK7"/>
-      <c r="AML7"/>
-      <c r="AMM7"/>
     </row>
-    <row r="8" spans="1:1027" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D8"/>
       <c r="E8"/>
-      <c r="F8"/>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
       <c r="G8"/>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1788,39 +1622,35 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
     </row>
-    <row r="9" spans="1:1027" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="9"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="9"/>
+      <c r="AMC9"/>
+      <c r="AMD9"/>
       <c r="AME9"/>
       <c r="AMF9"/>
       <c r="AMG9"/>
@@ -1828,37 +1658,33 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
       <c r="AMK9"/>
-      <c r="AML9"/>
-      <c r="AMM9"/>
     </row>
-    <row r="10" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="AMC10"/>
+      <c r="AMD10"/>
       <c r="AME10"/>
       <c r="AMF10"/>
       <c r="AMG10"/>
@@ -1866,37 +1692,33 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
       <c r="AMK10"/>
-      <c r="AML10"/>
-      <c r="AMM10"/>
     </row>
-    <row r="11" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="AMC11"/>
+      <c r="AMD11"/>
       <c r="AME11"/>
       <c r="AMF11"/>
       <c r="AMG11"/>
@@ -1904,35 +1726,31 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
       <c r="AMK11"/>
-      <c r="AML11"/>
-      <c r="AMM11"/>
     </row>
-    <row r="12" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="AMC12"/>
+      <c r="AMD12"/>
       <c r="AME12"/>
       <c r="AMF12"/>
       <c r="AMG12"/>
@@ -1940,28 +1758,26 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
       <c r="AMK12"/>
-      <c r="AML12"/>
-      <c r="AMM12"/>
     </row>
-    <row r="13" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="AMC13"/>
+      <c r="AMD13"/>
       <c r="AME13"/>
       <c r="AMF13"/>
       <c r="AMG13"/>
@@ -1969,28 +1785,26 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
       <c r="AMK13"/>
-      <c r="AML13"/>
-      <c r="AMM13"/>
     </row>
-    <row r="14" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="AMC14"/>
+      <c r="AMD14"/>
       <c r="AME14"/>
       <c r="AMF14"/>
       <c r="AMG14"/>
@@ -1998,45 +1812,39 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
       <c r="AMK14"/>
-      <c r="AML14"/>
-      <c r="AMM14"/>
     </row>
-    <row r="15" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>48</v>
-      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
       <c r="N15" s="19"/>
-      <c r="O15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="U15" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="S15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMC15"/>
+      <c r="AMD15"/>
       <c r="AME15"/>
       <c r="AMF15"/>
       <c r="AMG15"/>
@@ -2044,45 +1852,39 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
       <c r="AMK15"/>
-      <c r="AML15"/>
-      <c r="AMM15"/>
     </row>
-    <row r="16" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="N16" s="19"/>
-      <c r="O16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="U16" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="S16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMC16"/>
+      <c r="AMD16"/>
       <c r="AME16"/>
       <c r="AMF16"/>
       <c r="AMG16"/>
@@ -2090,39 +1892,35 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
       <c r="AMK16"/>
-      <c r="AML16"/>
-      <c r="AMM16"/>
     </row>
-    <row r="17" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>54</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="N17" s="19"/>
-      <c r="O17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="19"/>
-      <c r="U17" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="S17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMC17"/>
+      <c r="AMD17"/>
       <c r="AME17"/>
       <c r="AMF17"/>
       <c r="AMG17"/>
@@ -2130,28 +1928,24 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
       <c r="AMK17"/>
-      <c r="AML17"/>
-      <c r="AMM17"/>
     </row>
-    <row r="18" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>186</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -2159,21 +1953,21 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="22"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="U18" s="22"/>
       <c r="V18" s="22"/>
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
       <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
+      <c r="AMC18"/>
+      <c r="AMD18"/>
       <c r="AME18"/>
       <c r="AMF18"/>
       <c r="AMG18"/>
@@ -2181,26 +1975,22 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
       <c r="AMK18"/>
-      <c r="AML18"/>
-      <c r="AMM18"/>
     </row>
-    <row r="19" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>187</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
       <c r="G19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="AMC19"/>
+      <c r="AMD19"/>
       <c r="AME19"/>
       <c r="AMF19"/>
       <c r="AMG19"/>
@@ -2208,24 +1998,20 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
       <c r="AMK19"/>
-      <c r="AML19"/>
-      <c r="AMM19"/>
     </row>
-    <row r="20" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B20"/>
       <c r="C20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>62</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
       <c r="G20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="AMC20"/>
+      <c r="AMD20"/>
       <c r="AME20"/>
       <c r="AMF20"/>
       <c r="AMG20"/>
@@ -2233,20 +2019,18 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
       <c r="AMK20"/>
-      <c r="AML20"/>
-      <c r="AMM20"/>
     </row>
-    <row r="21" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21"/>
-      <c r="D21"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="AMC21"/>
+      <c r="AMD21"/>
       <c r="AME21"/>
       <c r="AMF21"/>
       <c r="AMG21"/>
@@ -2254,43 +2038,39 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
       <c r="AMK21"/>
-      <c r="AML21"/>
-      <c r="AMM21"/>
     </row>
-    <row r="22" spans="1:1027" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1025" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>188</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="36"/>
-      <c r="U22" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="P22" s="36"/>
+      <c r="S22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMC22"/>
+      <c r="AMD22"/>
       <c r="AME22"/>
       <c r="AMF22"/>
       <c r="AMG22"/>
@@ -2298,41 +2078,35 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
       <c r="AMK22"/>
-      <c r="AML22"/>
-      <c r="AMM22"/>
     </row>
-    <row r="23" spans="1:1027" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1025" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="I23" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="J23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="K23" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>204</v>
-      </c>
+      <c r="K23" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="AMC23"/>
+      <c r="AMD23"/>
       <c r="AME23"/>
       <c r="AMF23"/>
       <c r="AMG23"/>
@@ -2340,20 +2114,18 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
       <c r="AMK23"/>
-      <c r="AML23"/>
-      <c r="AMM23"/>
     </row>
-    <row r="24" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24"/>
-      <c r="D24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
       <c r="G24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="AMC24"/>
+      <c r="AMD24"/>
       <c r="AME24"/>
       <c r="AMF24"/>
       <c r="AMG24"/>
@@ -2361,31 +2133,27 @@
       <c r="AMI24"/>
       <c r="AMJ24"/>
       <c r="AMK24"/>
-      <c r="AML24"/>
-      <c r="AMM24"/>
     </row>
-    <row r="25" spans="1:1027" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1025" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>190</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F25" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2394,11 +2162,11 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="U25" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="S25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMC25"/>
+      <c r="AMD25"/>
       <c r="AME25"/>
       <c r="AMF25"/>
       <c r="AMG25"/>
@@ -2406,41 +2174,35 @@
       <c r="AMI25"/>
       <c r="AMJ25"/>
       <c r="AMK25"/>
-      <c r="AML25"/>
-      <c r="AMM25"/>
     </row>
-    <row r="26" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="I26" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="J26" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="K26" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>215</v>
-      </c>
+      <c r="K26" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="AMC26"/>
+      <c r="AMD26"/>
       <c r="AME26"/>
       <c r="AMF26"/>
       <c r="AMG26"/>
@@ -2448,20 +2210,18 @@
       <c r="AMI26"/>
       <c r="AMJ26"/>
       <c r="AMK26"/>
-      <c r="AML26"/>
-      <c r="AMM26"/>
     </row>
-    <row r="27" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="AMC27"/>
+      <c r="AMD27"/>
       <c r="AME27"/>
       <c r="AMF27"/>
       <c r="AMG27"/>
@@ -2469,31 +2229,27 @@
       <c r="AMI27"/>
       <c r="AMJ27"/>
       <c r="AMK27"/>
-      <c r="AML27"/>
-      <c r="AMM27"/>
     </row>
-    <row r="28" spans="1:1027" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1025" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>191</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F28" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2502,11 +2258,11 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="U28" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="S28" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMC28"/>
+      <c r="AMD28"/>
       <c r="AME28"/>
       <c r="AMF28"/>
       <c r="AMG28"/>
@@ -2514,43 +2270,37 @@
       <c r="AMI28"/>
       <c r="AMJ28"/>
       <c r="AMK28"/>
-      <c r="AML28"/>
-      <c r="AMM28"/>
     </row>
-    <row r="29" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="I29" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="J29" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="K29" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q29"/>
-      <c r="R29"/>
+      <c r="K29" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="AMC29"/>
+      <c r="AMD29"/>
       <c r="AME29"/>
       <c r="AMF29"/>
       <c r="AMG29"/>
@@ -2558,29 +2308,27 @@
       <c r="AMI29"/>
       <c r="AMJ29"/>
       <c r="AMK29"/>
-      <c r="AML29"/>
-      <c r="AMM29"/>
     </row>
-    <row r="30" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="Q30" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="R30" s="17" t="s">
-        <v>210</v>
-      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="O30" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AMC30"/>
+      <c r="AMD30"/>
       <c r="AME30"/>
       <c r="AMF30"/>
       <c r="AMG30"/>
@@ -2588,20 +2336,18 @@
       <c r="AMI30"/>
       <c r="AMJ30"/>
       <c r="AMK30"/>
-      <c r="AML30"/>
-      <c r="AMM30"/>
     </row>
-    <row r="31" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="AMC31"/>
+      <c r="AMD31"/>
       <c r="AME31"/>
       <c r="AMF31"/>
       <c r="AMG31"/>
@@ -2609,28 +2355,24 @@
       <c r="AMI31"/>
       <c r="AMJ31"/>
       <c r="AMK31"/>
-      <c r="AML31"/>
-      <c r="AMM31"/>
     </row>
-    <row r="32" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="I32" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AMC32"/>
+      <c r="AMD32"/>
       <c r="AME32"/>
       <c r="AMF32"/>
       <c r="AMG32"/>
@@ -2638,30 +2380,26 @@
       <c r="AMI32"/>
       <c r="AMJ32"/>
       <c r="AMK32"/>
-      <c r="AML32"/>
-      <c r="AMM32"/>
     </row>
-    <row r="33" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="Q33" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="R33" s="26" t="s">
-        <v>211</v>
-      </c>
+      <c r="O33" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AMC33"/>
+      <c r="AMD33"/>
       <c r="AME33"/>
       <c r="AMF33"/>
       <c r="AMG33"/>
@@ -2669,30 +2407,26 @@
       <c r="AMI33"/>
       <c r="AMJ33"/>
       <c r="AMK33"/>
-      <c r="AML33"/>
-      <c r="AMM33"/>
     </row>
-    <row r="34" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" t="s">
-        <v>193</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="Q34" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="R34" s="26" t="s">
-        <v>212</v>
-      </c>
+      <c r="O34" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AMC34"/>
+      <c r="AMD34"/>
       <c r="AME34"/>
       <c r="AMF34"/>
       <c r="AMG34"/>
@@ -2700,30 +2434,26 @@
       <c r="AMI34"/>
       <c r="AMJ34"/>
       <c r="AMK34"/>
-      <c r="AML34"/>
-      <c r="AMM34"/>
     </row>
-    <row r="35" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s">
-        <v>194</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="Q35" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="R35" s="26" t="s">
-        <v>213</v>
-      </c>
+      <c r="O35" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AMC35"/>
+      <c r="AMD35"/>
       <c r="AME35"/>
       <c r="AMF35"/>
       <c r="AMG35"/>
@@ -2731,20 +2461,18 @@
       <c r="AMI35"/>
       <c r="AMJ35"/>
       <c r="AMK35"/>
-      <c r="AML35"/>
-      <c r="AMM35"/>
     </row>
-    <row r="36" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="AMC36"/>
+      <c r="AMD36"/>
       <c r="AME36"/>
       <c r="AMF36"/>
       <c r="AMG36"/>
@@ -2752,31 +2480,27 @@
       <c r="AMI36"/>
       <c r="AMJ36"/>
       <c r="AMK36"/>
-      <c r="AML36"/>
-      <c r="AMM36"/>
     </row>
-    <row r="37" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>195</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D37" s="21"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
@@ -2786,11 +2510,11 @@
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
+      <c r="S37" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="T37" s="21"/>
-      <c r="U37" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
@@ -2799,8 +2523,8 @@
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
       <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
+      <c r="AMC37"/>
+      <c r="AMD37"/>
       <c r="AME37"/>
       <c r="AMF37"/>
       <c r="AMG37"/>
@@ -2808,38 +2532,32 @@
       <c r="AMI37"/>
       <c r="AMJ37"/>
       <c r="AMK37"/>
-      <c r="AML37"/>
-      <c r="AMM37"/>
     </row>
-    <row r="38" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="17">
+        <v>93</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="17">
         <v>900</v>
       </c>
+      <c r="AMC38" s="23"/>
+      <c r="AMD38" s="23"/>
       <c r="AME38" s="23"/>
       <c r="AMF38" s="23"/>
       <c r="AMG38" s="23"/>
@@ -2847,35 +2565,31 @@
       <c r="AMI38" s="23"/>
       <c r="AMJ38" s="23"/>
       <c r="AMK38" s="23"/>
-      <c r="AML38" s="23"/>
-      <c r="AMM38" s="23"/>
     </row>
-    <row r="39" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="J39" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="K39" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L39" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" s="34" t="s">
-        <v>217</v>
-      </c>
+      <c r="K39" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="AMC39" s="23"/>
+      <c r="AMD39" s="23"/>
       <c r="AME39" s="23"/>
       <c r="AMF39" s="23"/>
       <c r="AMG39" s="23"/>
@@ -2883,20 +2597,18 @@
       <c r="AMI39" s="23"/>
       <c r="AMJ39" s="23"/>
       <c r="AMK39" s="23"/>
-      <c r="AML39" s="23"/>
-      <c r="AMM39" s="23"/>
     </row>
-    <row r="40" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="AMC40"/>
+      <c r="AMD40"/>
       <c r="AME40"/>
       <c r="AMF40"/>
       <c r="AMG40"/>
@@ -2904,31 +2616,27 @@
       <c r="AMI40"/>
       <c r="AMJ40"/>
       <c r="AMK40"/>
-      <c r="AML40"/>
-      <c r="AMM40"/>
     </row>
-    <row r="41" spans="1:1027" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1025" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>198</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F41" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2937,11 +2645,11 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="U41" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="S41" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMC41" s="23"/>
+      <c r="AMD41" s="23"/>
       <c r="AME41" s="23"/>
       <c r="AMF41" s="23"/>
       <c r="AMG41" s="23"/>
@@ -2949,12 +2657,10 @@
       <c r="AMI41" s="23"/>
       <c r="AMJ41" s="23"/>
       <c r="AMK41" s="23"/>
-      <c r="AML41" s="23"/>
-      <c r="AMM41" s="23"/>
     </row>
-    <row r="42" spans="1:1027" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -2969,14 +2675,14 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42" t="s">
-        <v>105</v>
-      </c>
-      <c r="R42" t="s">
-        <v>214</v>
-      </c>
+      <c r="O42" t="s">
+        <v>102</v>
+      </c>
+      <c r="P42" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q42"/>
+      <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42"/>
@@ -2987,22 +2693,18 @@
       <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
     </row>
-    <row r="43" spans="1:1027" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" t="s">
-        <v>199</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -3027,20 +2729,18 @@
       <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
     </row>
-    <row r="44" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="AMC44" s="23"/>
+      <c r="AMD44" s="23"/>
       <c r="AME44" s="23"/>
       <c r="AMF44" s="23"/>
       <c r="AMG44" s="23"/>
@@ -3048,31 +2748,27 @@
       <c r="AMI44" s="23"/>
       <c r="AMJ44" s="23"/>
       <c r="AMK44" s="23"/>
-      <c r="AML44" s="23"/>
-      <c r="AMM44" s="23"/>
     </row>
-    <row r="45" spans="1:1027" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1025" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>200</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F45" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -3081,11 +2777,11 @@
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="U45" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="S45" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AMC45"/>
+      <c r="AMD45"/>
       <c r="AME45"/>
       <c r="AMF45"/>
       <c r="AMG45"/>
@@ -3093,41 +2789,35 @@
       <c r="AMI45"/>
       <c r="AMJ45"/>
       <c r="AMK45"/>
-      <c r="AML45"/>
-      <c r="AMM45"/>
     </row>
-    <row r="46" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="I46" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="J46" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
-        <v>201</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="24"/>
-      <c r="K46" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="L46" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="M46" s="34" t="s">
-        <v>218</v>
-      </c>
+      <c r="K46" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="AMC46"/>
+      <c r="AMD46"/>
       <c r="AME46"/>
       <c r="AMF46"/>
       <c r="AMG46"/>
@@ -3135,20 +2825,18 @@
       <c r="AMI46"/>
       <c r="AMJ46"/>
       <c r="AMK46"/>
-      <c r="AML46"/>
-      <c r="AMM46"/>
     </row>
-    <row r="47" spans="1:1027" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1025" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="AMC47"/>
+      <c r="AMD47"/>
       <c r="AME47"/>
       <c r="AMF47"/>
       <c r="AMG47"/>
@@ -3156,47 +2844,40 @@
       <c r="AMI47"/>
       <c r="AMJ47"/>
       <c r="AMK47"/>
-      <c r="AML47"/>
-      <c r="AMM47"/>
     </row>
-    <row r="48" spans="1:1027" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="F48" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16382" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="H48" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16384" ht="170" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>205</v>
-      </c>
+      <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
-      <c r="G49"/>
+      <c r="G49" t="s">
+        <v>117</v>
+      </c>
       <c r="H49"/>
-      <c r="I49" t="s">
-        <v>120</v>
-      </c>
+      <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
@@ -3216,29 +2897,25 @@
       <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
     </row>
-    <row r="50" spans="1:16384" ht="204" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16382" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>230</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="G50"/>
+      <c r="G50" t="s">
+        <v>120</v>
+      </c>
       <c r="H50"/>
-      <c r="I50" t="s">
-        <v>123</v>
-      </c>
+      <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
@@ -3258,29 +2935,25 @@
       <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
-      <c r="AC50"/>
-      <c r="AD50"/>
     </row>
-    <row r="51" spans="1:16384" ht="204" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16382" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>206</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
-      <c r="G51"/>
+      <c r="G51" t="s">
+        <v>123</v>
+      </c>
       <c r="H51"/>
-      <c r="I51" t="s">
-        <v>126</v>
-      </c>
+      <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
@@ -3300,29 +2973,25 @@
       <c r="Z51"/>
       <c r="AA51"/>
       <c r="AB51"/>
-      <c r="AC51"/>
-      <c r="AD51"/>
     </row>
-    <row r="52" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" t="s">
-        <v>203</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
-      <c r="G52"/>
+      <c r="G52" t="s">
+        <v>126</v>
+      </c>
       <c r="H52"/>
-      <c r="I52" t="s">
-        <v>129</v>
-      </c>
+      <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
@@ -3342,22 +3011,18 @@
       <c r="Z52"/>
       <c r="AA52"/>
       <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
     </row>
-    <row r="53" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" t="s">
-        <v>131</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
@@ -3382,15 +3047,13 @@
       <c r="Z53"/>
       <c r="AA53"/>
       <c r="AB53"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
     </row>
-    <row r="54" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -3402,11 +3065,11 @@
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
-      <c r="M54"/>
+      <c r="M54" s="37" t="s">
+        <v>197</v>
+      </c>
       <c r="N54"/>
-      <c r="O54" s="37" t="s">
-        <v>242</v>
-      </c>
+      <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
@@ -3420,34 +3083,30 @@
       <c r="Z54"/>
       <c r="AA54"/>
       <c r="AB54"/>
-      <c r="AC54"/>
-      <c r="AD54"/>
     </row>
-    <row r="55" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>240</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D55" s="37"/>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
+      <c r="G55" t="s">
+        <v>120</v>
+      </c>
       <c r="H55" s="37"/>
-      <c r="I55" t="s">
-        <v>123</v>
-      </c>
+      <c r="I55" s="37"/>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
       <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
       <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
       <c r="R55" s="37"/>
@@ -19815,15 +19474,13 @@
       <c r="XEZ55" s="37"/>
       <c r="XFA55" s="37"/>
       <c r="XFB55" s="37"/>
-      <c r="XFC55" s="37"/>
-      <c r="XFD55" s="37"/>
     </row>
-    <row r="56" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="B58" s="38"/>
     </row>
   </sheetData>
@@ -19833,26 +19490,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="103.6640625" style="29" customWidth="1"/>
-    <col min="5" max="1022" width="10.5" customWidth="1"/>
-    <col min="1023" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="76.125" style="28" customWidth="1"/>
+    <col min="4" max="1021" width="10.5" customWidth="1"/>
+    <col min="1022" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="31" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -19860,276 +19516,216 @@
       <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>207</v>
-      </c>
+      <c r="AMH1"/>
       <c r="AMI1"/>
-      <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>135</v>
       </c>
-      <c r="D2" t="s">
-        <v>219</v>
+      <c r="C4" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
         <v>133</v>
       </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>220</v>
+      <c r="C18" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>231</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1024" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>173</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -20139,60 +19735,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="121.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="58.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="32.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="29" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="29" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="29" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="31" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="31" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:6" s="29" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>180</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>183</v>
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-04-12 12-56</v>
+        <v>2020-08-19 21-51</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F2" s="33"/>
     </row>
